--- a/DB/Account/AccountCategory-2023-10-31.xlsx
+++ b/DB/Account/AccountCategory-2023-10-31.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Django_Proj\src\DB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AIS-Django\DB\Account\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B4FEE4E-D151-491E-BF8C-D0D57A4C59A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tablib Dataset" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -66,12 +67,6 @@
     <t>رأس مال المساهمين</t>
   </si>
   <si>
-    <t>أرباح / خسائر العام</t>
-  </si>
-  <si>
-    <t>أرباح مرحلة</t>
-  </si>
-  <si>
     <t>النقدية وما في حكمها</t>
   </si>
   <si>
@@ -112,12 +107,6 @@
   </si>
   <si>
     <t>Shareholders' Capital</t>
-  </si>
-  <si>
-    <t>Profit/Loss for the year</t>
-  </si>
-  <si>
-    <t>Stage earnings</t>
   </si>
   <si>
     <t>Cash and cash equivalents</t>
@@ -126,7 +115,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -189,21 +178,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Tablib Dataset" xfId="1"/>
+    <cellStyle name="Normal_Tablib Dataset" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -502,17 +490,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2:D16"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -523,220 +514,192 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>2</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="4">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4">
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4">
+        <v>2</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="4">
+        <v>2</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="4">
+        <v>2</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="4">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="5">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="D14" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="5">
-        <v>1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="5">
-        <v>1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="5">
-        <v>2</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="5">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="5">
-        <v>2</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="5">
-        <v>2</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="5">
-        <v>2</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="5">
-        <v>2</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="5">
-        <v>2</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" s="5">
-        <v>2</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="5">
-        <v>2</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="5">
-        <v>2</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="5">
-        <v>2</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>33</v>
       </c>
     </row>
   </sheetData>
